--- a/regions/11/garemos dacva/garemos dacva.xlsx
+++ b/regions/11/garemos dacva/garemos dacva.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91731CE7-7706-4E52-B20E-13EB7825E315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="მცხეთა-მთიანეთი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>ტყის თესვა და დარგვა (ჰექტარი)</t>
   </si>
@@ -79,56 +78,6 @@
     <t>დაჭერილი (ათასი ტონა)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ტყის ფონდის ფართობი* - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>238</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ათასი ჰექტარი</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">აქედან, ტყით დაფარული ფართობი* - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>223</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ათასი ჰექტარი</t>
-    </r>
-  </si>
-  <si>
     <t>ტყის ჭრით მიღებული ხე-ტყის მოცულობა* (კუბური მეტრი)</t>
   </si>
   <si>
@@ -139,17 +88,23 @@
   </si>
   <si>
     <t>პირობითი აღნიშვნები:</t>
+  </si>
+  <si>
+    <t>ტყის ფონდის ფართობი* - 182 ათასი ჰექტარი</t>
+  </si>
+  <si>
+    <t>აქედან, ტყით დაფარული ფართობი* - 169 ათასი ჰექტარი</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,13 +173,6 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,29 +259,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,23 +376,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -480,23 +411,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,71 +586,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" style="3" customWidth="1"/>
-    <col min="2" max="9" width="9.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="68.88671875" style="3" customWidth="1"/>
+    <col min="2" max="9" width="9.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="12">
         <v>2013</v>
@@ -762,10 +682,16 @@
       <c r="I5" s="12">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="12">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8">
         <v>52772</v>
@@ -791,10 +717,16 @@
       <c r="I6" s="8">
         <v>40824</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="8">
+        <v>31124.1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>29025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8">
         <v>102</v>
@@ -820,8 +752,14 @@
       <c r="I7" s="8">
         <v>551</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="8">
+        <v>92.6</v>
+      </c>
+      <c r="K7" s="8">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -849,8 +787,14 @@
       <c r="I8" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -878,8 +822,14 @@
       <c r="I9" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="9">
+        <v>25.6</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -896,7 +846,7 @@
         <v>8.1</v>
       </c>
       <c r="F10" s="10">
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G10" s="10">
         <v>11</v>
@@ -905,10 +855,16 @@
         <v>15.2</v>
       </c>
       <c r="I10" s="10">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10.1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="K10" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
@@ -920,8 +876,10 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -947,10 +905,16 @@
         <v>13.9</v>
       </c>
       <c r="I12" s="10">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8.6</v>
+      </c>
+      <c r="J12" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="K12" s="10">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>4</v>
       </c>
@@ -967,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="11">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="G13" s="11">
         <v>1.3</v>
@@ -976,85 +940,96 @@
         <v>1.4</v>
       </c>
       <c r="I13" s="11">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regions/11/garemos dacva/garemos dacva.xlsx
+++ b/regions/11/garemos dacva/garemos dacva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="მცხეთა-მთიანეთი" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>ტყის თესვა და დარგვა (ჰექტარი)</t>
   </si>
@@ -268,20 +268,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,76 +587,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.88671875" style="3" customWidth="1"/>
-    <col min="2" max="9" width="9.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="68.85546875" style="3" customWidth="1"/>
+    <col min="2" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="12">
         <v>2013</v>
@@ -688,8 +694,11 @@
       <c r="K5" s="12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -723,8 +732,11 @@
       <c r="K6" s="8">
         <v>29025</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="8">
+        <v>32171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -758,8 +770,11 @@
       <c r="K7" s="8">
         <v>726</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -793,8 +808,11 @@
       <c r="K8" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -828,8 +846,11 @@
       <c r="K9" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -863,8 +884,11 @@
       <c r="K10" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="10">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
@@ -878,8 +902,9 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -913,8 +938,11 @@
       <c r="K12" s="10">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="10">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>4</v>
       </c>
@@ -948,22 +976,27 @@
       <c r="K13" s="11">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="L13" s="11">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1009,10 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -990,8 +1025,10 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
@@ -1004,8 +1041,10 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>8</v>
       </c>
@@ -1018,18 +1057,20 @@
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
